--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -207,7 +207,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -304,17 +311,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -358,6 +369,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,15 +477,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1395348837209"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="72.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,20 +509,20 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>126904.7</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">C2/10^6</f>
         <v>0.1269047</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <f aca="false">D2</f>
         <v>0.1269047</v>
       </c>
@@ -516,32 +531,32 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>144757.231</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">C3/10^6</f>
         <v>0.144757231</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <f aca="false">D3</f>
         <v>0.144757231</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -550,7 +565,7 @@
       <c r="D4" s="0" t="n">
         <v>0.163158574</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <f aca="false">D4</f>
         <v>0.163158574</v>
       </c>
@@ -559,7 +574,7 @@
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -569,16 +584,19 @@
         <f aca="false">C5/10^6</f>
         <v>0.234762397</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <f aca="false">D5</f>
         <v>0.234762397</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -588,16 +606,19 @@
         <f aca="false">C6/10^6</f>
         <v>0.234988378</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <f aca="false">D6</f>
         <v>0.234988378</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -607,16 +628,19 @@
         <f aca="false">C7/10^6</f>
         <v>0.242155217</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <f aca="false">D7</f>
         <v>0.242155217</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -626,30 +650,33 @@
         <f aca="false">C8/10^6</f>
         <v>0.259265238</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <f aca="false">D8</f>
         <v>0.259265238</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>300684.401</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">C9/10^6</f>
         <v>0.300684401</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <f aca="false">D9</f>
         <v>0.300684401</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -657,7 +684,7 @@
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -667,16 +694,19 @@
         <f aca="false">C10/10^6</f>
         <v>0.357986829</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <f aca="false">D10</f>
         <v>0.357986829</v>
       </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -685,7 +715,7 @@
       <c r="D11" s="0" t="n">
         <v>0.442116477</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <f aca="false">D11</f>
         <v>0.442116477</v>
       </c>
@@ -694,7 +724,7 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -704,14 +734,14 @@
         <f aca="false">C12/10^6</f>
         <v>0.448605372</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <f aca="false">D12</f>
         <v>0.448605372</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -719,7 +749,7 @@
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -729,16 +759,19 @@
         <f aca="false">C13/10^6</f>
         <v>0.543646694</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <f aca="false">D13</f>
         <v>0.543646694</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -748,11 +781,11 @@
         <f aca="false">C14/10^6</f>
         <v>0.596106663</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <f aca="false">D14</f>
         <v>0.596106663</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -760,7 +793,7 @@
       <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -770,16 +803,19 @@
         <f aca="false">C15/10^6</f>
         <v>0.636105372</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <f aca="false">D15</f>
         <v>0.636105372</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -789,16 +825,19 @@
         <f aca="false">C16/10^6</f>
         <v>0.680720558</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <f aca="false">D16</f>
         <v>0.680720558</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -808,11 +847,11 @@
         <f aca="false">C17/10^6</f>
         <v>0.8574703</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <f aca="false">D17</f>
         <v>0.8574703</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -820,7 +859,7 @@
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -830,22 +869,22 @@
         <f aca="false">C18/10^6</f>
         <v>1.11914679</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <f aca="false">D18</f>
         <v>1.11914679</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -854,7 +893,7 @@
       <c r="D19" s="0" t="n">
         <v>1.26231285</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <f aca="false">D19</f>
         <v>1.26231285</v>
       </c>
@@ -863,7 +902,7 @@
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -873,16 +912,19 @@
         <f aca="false">C20/10^6</f>
         <v>1.48820668</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <f aca="false">D20</f>
         <v>1.48820668</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -892,16 +934,19 @@
         <f aca="false">C21/10^6</f>
         <v>1.73434272</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <f aca="false">D21</f>
         <v>1.73434272</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -911,22 +956,22 @@
         <f aca="false">C22/10^6</f>
         <v>2.14046358</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <f aca="false">D22</f>
         <v>2.14046358</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -935,7 +980,7 @@
       <c r="D23" s="0" t="n">
         <v>2.23192149</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="7" t="n">
         <f aca="false">D23</f>
         <v>2.23192149</v>
       </c>
@@ -944,7 +989,7 @@
       <c r="A24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -954,50 +999,50 @@
         <f aca="false">C24/10^6</f>
         <v>2.56514721</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <f aca="false">D24</f>
         <v>2.56514721</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="0" windowWidth="13560" windowHeight="15700" tabRatio="986"/>
+    <workbookView xWindow="17880" yWindow="0" windowWidth="13560" windowHeight="15700" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -153,7 +153,10 @@
     <t>blue: for comparison plots</t>
   </si>
   <si>
-    <t>running (partial)</t>
+    <t>queueing</t>
+  </si>
+  <si>
+    <t>queueing (partial)</t>
   </si>
 </sst>
 </file>
@@ -286,8 +289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -321,9 +328,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,6 +737,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -831,7 +845,7 @@
         <v>0.23476239699999998</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -853,7 +867,7 @@
         <v>0.234988378</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -875,7 +889,7 @@
         <v>0.24215521700000001</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -941,7 +955,7 @@
         <v>0.35798682900000001</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1006,7 +1020,7 @@
         <v>0.54364669399999999</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1050,7 +1064,7 @@
         <v>0.63610537199999995</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1072,7 +1086,7 @@
         <v>0.68072055799999998</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1159,7 +1173,7 @@
         <v>1.48820668</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="0" windowWidth="13560" windowHeight="15700" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>queueing (partial)</t>
+  </si>
+  <si>
+    <t>running (partial)</t>
   </si>
 </sst>
 </file>
@@ -289,8 +292,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,13 +343,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,8 +831,8 @@
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -845,7 +872,7 @@
         <v>0.23476239699999998</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -867,7 +894,7 @@
         <v>0.234988378</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -889,7 +916,7 @@
         <v>0.24215521700000001</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -910,8 +937,8 @@
         <f t="shared" si="0"/>
         <v>0.25926523800000001</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -932,8 +959,11 @@
         <f t="shared" si="0"/>
         <v>0.30068440099999999</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>11</v>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1019,8 +1049,8 @@
         <f t="shared" si="0"/>
         <v>0.54364669399999999</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>43</v>
+      <c r="G13" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1063,8 +1093,8 @@
         <f t="shared" si="0"/>
         <v>0.63610537199999995</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>43</v>
+      <c r="G15" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1085,8 +1115,8 @@
         <f t="shared" si="0"/>
         <v>0.68072055799999998</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>43</v>
+      <c r="G16" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1107,8 +1137,11 @@
         <f t="shared" si="0"/>
         <v>0.85747030000000002</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
+      <c r="G17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1173,7 +1206,7 @@
         <v>1.48820668</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1259,8 +1292,11 @@
         <f t="shared" si="0"/>
         <v>2.5651472100000001</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>11</v>
+      <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -286,8 +286,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -349,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +367,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -380,6 +383,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1045,8 +1049,8 @@
       <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>11</v>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -286,8 +286,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -368,6 +370,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -384,6 +387,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1190,8 +1194,8 @@
       <c r="G18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>11</v>
+      <c r="H18" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>running (partial)</t>
+  </si>
+  <si>
+    <t>queueing</t>
   </si>
 </sst>
 </file>
@@ -286,8 +289,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +380,9 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -388,6 +400,9 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,8 +1025,11 @@
         <f t="shared" si="0"/>
         <v>0.35798682900000001</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>11</v>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1256,7 +1274,7 @@
         <f t="shared" si="0"/>
         <v>1.7343427199999999</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -289,8 +289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -383,6 +387,8 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -403,6 +409,8 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,8 +1260,11 @@
         <f t="shared" si="0"/>
         <v>1.48820668</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
+      <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>queueing</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -858,6 +861,9 @@
         <f t="shared" ref="E2:E24" si="0">D2</f>
         <v>0.12690470000000001</v>
       </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
@@ -901,6 +907,9 @@
         <f t="shared" si="0"/>
         <v>0.163158574</v>
       </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -1057,6 +1066,9 @@
         <f t="shared" si="0"/>
         <v>0.44211647700000001</v>
       </c>
+      <c r="G11" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -1101,8 +1113,11 @@
         <f t="shared" si="0"/>
         <v>0.54364669399999999</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>11</v>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1241,6 +1256,9 @@
         <f t="shared" si="0"/>
         <v>1.26231285</v>
       </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
@@ -1260,11 +1278,8 @@
         <f t="shared" si="0"/>
         <v>1.48820668</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>44</v>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1330,6 +1345,9 @@
       <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>2.23192149</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="13580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -159,14 +159,14 @@
     <t>queueing</t>
   </si>
   <si>
-    <t>xx</t>
+    <t>queueing (partial)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -200,13 +200,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -292,54 +285,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -361,15 +366,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -392,6 +396,12 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -414,6 +424,12 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -847,7 +863,7 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7">
@@ -861,9 +877,6 @@
         <f t="shared" ref="E2:E24" si="0">D2</f>
         <v>0.12690470000000001</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
@@ -907,9 +920,6 @@
         <f t="shared" si="0"/>
         <v>0.163158574</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -929,7 +939,7 @@
         <f t="shared" si="0"/>
         <v>0.23476239699999998</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -951,7 +961,7 @@
         <f t="shared" si="0"/>
         <v>0.234988378</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -973,7 +983,7 @@
         <f t="shared" si="0"/>
         <v>0.24215521700000001</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -995,8 +1005,8 @@
         <f t="shared" si="0"/>
         <v>0.25926523800000001</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>43</v>
+      <c r="G8" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1046,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1066,9 +1076,6 @@
         <f t="shared" si="0"/>
         <v>0.44211647700000001</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -1124,7 +1131,7 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C14">
@@ -1163,8 +1170,11 @@
         <f t="shared" si="0"/>
         <v>0.63610537199999995</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>11</v>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,15 +1195,18 @@
         <f t="shared" si="0"/>
         <v>0.68072055799999998</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>11</v>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C17">
@@ -1218,7 +1231,7 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C18">
@@ -1256,15 +1269,12 @@
         <f t="shared" si="0"/>
         <v>1.26231285</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C20">
@@ -1286,7 +1296,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C21">
@@ -1300,15 +1310,18 @@
         <f t="shared" si="0"/>
         <v>1.7343427199999999</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>11</v>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C22">
@@ -1346,15 +1359,12 @@
         <f t="shared" si="0"/>
         <v>2.23192149</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C24">
@@ -1376,37 +1386,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="10" t="s">
         <v>42</v>
       </c>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="17060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>running (partial)</t>
-  </si>
-  <si>
-    <t>queueing</t>
-  </si>
-  <si>
-    <t>queueing (partial)</t>
   </si>
 </sst>
 </file>
@@ -285,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,6 +336,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
@@ -373,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -402,6 +410,16 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -430,6 +448,10 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1005,8 +1027,11 @@
         <f t="shared" si="0"/>
         <v>0.25926523800000001</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>45</v>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1030,8 +1055,8 @@
       <c r="G9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1055,8 +1080,8 @@
       <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>11</v>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1123,8 +1148,8 @@
       <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>44</v>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1148,8 +1173,8 @@
       <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>11</v>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1174,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1199,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1223,8 +1248,8 @@
       <c r="G17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>11</v>
+      <c r="H17" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1288,8 +1313,11 @@
         <f t="shared" si="0"/>
         <v>1.48820668</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
+      <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1314,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1381,8 +1409,8 @@
       <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>11</v>
+      <c r="H24" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -279,7 +279,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -350,6 +350,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
@@ -381,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -420,6 +424,8 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +458,8 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1005,8 +1013,11 @@
         <f t="shared" si="0"/>
         <v>0.24215521700000001</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>43</v>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Pos14Exp7</t>
-  </si>
-  <si>
-    <t>running (partial)</t>
   </si>
   <si>
     <t>Pos14Exp2</t>
@@ -160,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -187,13 +184,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF79646"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -281,16 +271,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,21 +311,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,8 +847,8 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>17</v>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -847,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>234988.378</v>
@@ -860,16 +869,19 @@
         <f t="shared" si="0"/>
         <v>0.234988378</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>242155.217</v>
@@ -885,16 +897,16 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>17</v>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
         <v>259265.23800000001</v>
@@ -919,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>300684.40100000001</v>
@@ -943,8 +955,8 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>357986.82900000003</v>
@@ -966,10 +978,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C11">
         <v>442116.47700000001</v>
@@ -986,8 +998,8 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C12">
         <v>448605.37199999997</v>
@@ -1011,8 +1023,8 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
         <v>543646.69400000002</v>
@@ -1036,8 +1048,8 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C14">
         <v>596106.66299999994</v>
@@ -1061,8 +1073,8 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>26</v>
+      <c r="B15" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C15">
         <v>636105.37199999997</v>
@@ -1078,16 +1090,16 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>17</v>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>27</v>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C16">
         <v>680720.55799999996</v>
@@ -1103,16 +1115,16 @@
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>17</v>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>28</v>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C17">
         <v>857470.3</v>
@@ -1136,8 +1148,8 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>29</v>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C18">
         <v>1119146.79</v>
@@ -1159,10 +1171,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="C19">
         <v>1262312.8500000001</v>
@@ -1179,8 +1191,8 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>32</v>
+      <c r="B20" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C20">
         <v>1488206.68</v>
@@ -1204,8 +1216,8 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>33</v>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C21">
         <v>1734342.72</v>
@@ -1229,8 +1241,8 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>34</v>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2140463.58</v>
@@ -1252,10 +1264,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C23">
         <v>2231921.4900000002</v>
@@ -1272,8 +1284,8 @@
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>37</v>
+      <c r="B24" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C24">
         <v>2565147.21</v>
@@ -1294,39 +1306,39 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="C33" s="10"/>
     </row>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="0" windowWidth="18940" windowHeight="16600" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -150,17 +150,20 @@
     <t>blue: for comparison plots</t>
   </si>
   <si>
-    <t>8000 more samples</t>
-  </si>
-  <si>
     <t>running/queued</t>
+  </si>
+  <si>
+    <t>8000 more samples - first run</t>
+  </si>
+  <si>
+    <t>second run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -210,6 +213,36 @@
     <font>
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE26B0A"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31869B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -272,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,8 +315,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,16 +389,68 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +857,7 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,10 +880,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -771,7 +905,7 @@
         <v>0.12690470000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -795,11 +929,23 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="17">
+        <v>1094</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1035</v>
+      </c>
+      <c r="L3" s="19">
+        <v>991</v>
+      </c>
+      <c r="M3" s="20">
+        <v>1021</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -817,7 +963,7 @@
         <v>0.163158574</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -841,11 +987,20 @@
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="17">
+        <v>1139</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1011</v>
+      </c>
+      <c r="L5" s="19">
+        <v>981</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -869,11 +1024,20 @@
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="17">
+        <v>1009</v>
+      </c>
+      <c r="K6" s="18">
+        <v>929</v>
+      </c>
+      <c r="L6" s="19">
+        <v>4</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -897,11 +1061,20 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="17">
+        <v>1389</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1507</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1384</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -925,11 +1098,20 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="17">
+        <v>1274</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1263</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1203</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -953,11 +1135,17 @@
       <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="17">
+        <v>1720</v>
+      </c>
+      <c r="K9" s="18">
+        <v>4</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -981,11 +1169,20 @@
       <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="17">
+        <v>1397</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1353</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1435</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1200,7 @@
         <v>0.44211647700000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1027,11 +1224,17 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="17">
+        <v>1626</v>
+      </c>
+      <c r="K12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1055,11 +1258,17 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="17">
+        <v>2478</v>
+      </c>
+      <c r="K13" s="18">
+        <v>2638</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1083,11 +1292,17 @@
       <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="17">
+        <v>2608</v>
+      </c>
+      <c r="K14" s="18">
+        <v>2411</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1111,11 +1326,17 @@
       <c r="H15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="17">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="18">
+        <v>2044</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1139,11 +1360,20 @@
       <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="17">
+        <v>2191</v>
+      </c>
+      <c r="K16" s="18">
+        <v>2140</v>
+      </c>
+      <c r="L16" s="19">
+        <v>2093</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1167,11 +1397,20 @@
       <c r="H17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="17">
+        <v>2329</v>
+      </c>
+      <c r="K17" s="18">
+        <v>2438</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2276</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1195,11 +1434,14 @@
       <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="17">
+        <v>1786</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1459,7 @@
         <v>1.26231285</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1241,11 +1483,17 @@
       <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="17">
+        <v>2079</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1990</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1269,11 +1517,14 @@
       <c r="H21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="17">
+        <v>3268</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1297,11 +1548,14 @@
       <c r="H22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="17">
+        <v>2323</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -1319,7 +1573,7 @@
         <v>2.23192149</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1343,11 +1597,17 @@
       <c r="H24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J24" s="17">
+        <v>2338</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1637</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
@@ -1356,21 +1616,21 @@
       </c>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:13">
       <c r="A30" s="14"/>
       <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:13">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:13">
       <c r="A32" s="14"/>
       <c r="B32" s="16" t="s">
         <v>40</v>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -150,20 +150,92 @@
     <t>blue: for comparison plots</t>
   </si>
   <si>
-    <t>running/queued</t>
-  </si>
-  <si>
     <t>8000 more samples - first run</t>
   </si>
   <si>
     <t>second run</t>
+  </si>
+  <si>
+    <t>third run</t>
+  </si>
+  <si>
+    <t>fourth run</t>
+  </si>
+  <si>
+    <t>fifth run</t>
+  </si>
+  <si>
+    <t>DONE! (1)</t>
+  </si>
+  <si>
+    <t>DONE! (2)</t>
+  </si>
+  <si>
+    <t>sixth run</t>
+  </si>
+  <si>
+    <t>DONE! (3)</t>
+  </si>
+  <si>
+    <t>DONE! (4)</t>
+  </si>
+  <si>
+    <t>DONE! (5)</t>
+  </si>
+  <si>
+    <t>DONE! (6)</t>
+  </si>
+  <si>
+    <t>DONE! (7)</t>
+  </si>
+  <si>
+    <t>DONE! (8)</t>
+  </si>
+  <si>
+    <t>DONE! (9)</t>
+  </si>
+  <si>
+    <t>DONE! (10)</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>DONE! (11)</t>
+  </si>
+  <si>
+    <t>DONE! (12)</t>
+  </si>
+  <si>
+    <t>DONE! (13)</t>
+  </si>
+  <si>
+    <t>DONE! (14)</t>
+  </si>
+  <si>
+    <t>seventh run</t>
+  </si>
+  <si>
+    <t>eighth run</t>
+  </si>
+  <si>
+    <t>DONE!</t>
+  </si>
+  <si>
+    <t>1556 (split up)</t>
+  </si>
+  <si>
+    <t>2942 (split up)</t>
+  </si>
+  <si>
+    <t>1411 (split up)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -245,6 +317,11 @@
       <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -305,7 +382,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,8 +438,192 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,8 +656,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -424,6 +688,98 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -451,6 +807,98 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -857,7 +1305,7 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,13 +1328,31 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -905,7 +1371,7 @@
         <v>0.12690470000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -941,11 +1407,26 @@
       <c r="M3" s="20">
         <v>1021</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="23">
+        <v>949</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1171</v>
+      </c>
+      <c r="P3" s="25">
+        <v>1305</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>434</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -963,7 +1444,7 @@
         <v>0.163158574</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>2</v>
       </c>
@@ -996,11 +1477,26 @@
       <c r="L5" s="19">
         <v>981</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="20">
+        <v>1208</v>
+      </c>
+      <c r="N5" s="23">
+        <v>978</v>
+      </c>
+      <c r="O5" s="17">
+        <v>1127</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1033,11 +1529,26 @@
       <c r="L6" s="19">
         <v>4</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="20">
+        <v>1043</v>
+      </c>
+      <c r="N6" s="23">
+        <v>1008</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1065</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1070,11 +1581,23 @@
       <c r="L7" s="19">
         <v>1384</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="20">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="23">
+        <v>1413</v>
+      </c>
+      <c r="O7" s="17">
+        <v>931</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1107,11 +1630,23 @@
       <c r="L8" s="19">
         <v>1203</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="20">
+        <v>1497</v>
+      </c>
+      <c r="N8" s="23">
+        <v>1352</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1141,11 +1676,26 @@
       <c r="K9" s="18">
         <v>4</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="L9" s="19">
+        <v>1944</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1739</v>
+      </c>
+      <c r="N9" s="23">
+        <v>1959</v>
+      </c>
+      <c r="O9" s="17">
+        <v>634</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1178,11 +1728,23 @@
       <c r="L10" s="19">
         <v>1435</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="22">
+        <v>1478</v>
+      </c>
+      <c r="N10" s="23">
+        <v>1512</v>
+      </c>
+      <c r="O10" s="17">
+        <v>825</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1762,7 @@
         <v>0.44211647700000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1230,11 +1792,26 @@
       <c r="K12" s="18">
         <v>3</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="L12" s="19">
+        <v>1991</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1738</v>
+      </c>
+      <c r="N12" s="23">
+        <v>1712</v>
+      </c>
+      <c r="O12" s="17">
+        <v>930</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1264,11 +1841,17 @@
       <c r="K13" s="18">
         <v>2638</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="L13" s="19">
+        <v>2884</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1298,11 +1881,20 @@
       <c r="K14" s="18">
         <v>2411</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="L14" s="19">
+        <v>2801</v>
+      </c>
+      <c r="M14" s="22">
+        <v>180</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1332,11 +1924,20 @@
       <c r="K15" s="18">
         <v>2044</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="L15" s="19">
+        <v>1963</v>
+      </c>
+      <c r="M15" s="22">
+        <v>1993</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1369,11 +1970,17 @@
       <c r="L16" s="19">
         <v>2093</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="22">
+        <v>1576</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1406,11 +2013,17 @@
       <c r="L17" s="19">
         <v>2276</v>
       </c>
-      <c r="M17" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="22">
+        <v>957</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1437,11 +2050,29 @@
       <c r="J18" s="17">
         <v>1786</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K18" s="18">
+        <v>384</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1742</v>
+      </c>
+      <c r="M18" s="20">
+        <v>1971</v>
+      </c>
+      <c r="N18" s="23">
+        <v>1693</v>
+      </c>
+      <c r="O18" s="17">
+        <v>424</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +2090,7 @@
         <v>1.26231285</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1489,11 +2120,20 @@
       <c r="K20" s="18">
         <v>1990</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="19">
+        <v>1972</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1959</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1520,11 +2160,23 @@
       <c r="J21" s="17">
         <v>3268</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="K21" s="18">
+        <v>478</v>
+      </c>
+      <c r="L21" s="21">
+        <v>3390</v>
+      </c>
+      <c r="M21" s="22">
+        <v>864</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1551,11 +2203,20 @@
       <c r="J22" s="17">
         <v>2323</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="K22" s="18">
+        <v>3113</v>
+      </c>
+      <c r="L22" s="21">
+        <v>2564</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +2234,7 @@
         <v>2.23192149</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1603,11 +2264,20 @@
       <c r="K24" s="18">
         <v>1637</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="L24" s="21">
+        <v>2618</v>
+      </c>
+      <c r="M24" s="22">
+        <v>1407</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
@@ -1616,21 +2286,21 @@
       </c>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:17">
       <c r="A30" s="14"/>
       <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:17">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:17">
       <c r="A32" s="14"/>
       <c r="B32" s="16" t="s">
         <v>40</v>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">Pos11Exp 1</t>
   </si>
   <si>
+    <t xml:space="preserve">hpc</t>
+  </si>
+  <si>
     <t xml:space="preserve">DONE!</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t xml:space="preserve">Pos6exp4</t>
   </si>
   <si>
+    <t xml:space="preserve">hpc windfall</t>
+  </si>
+  <si>
     <t xml:space="preserve">DONE! (3)</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">HL_2014-02-21_Pos7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** office desktop later</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (8)</t>
@@ -234,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -269,6 +278,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF579D1C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -318,6 +334,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF31869B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF6666"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -414,7 +444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,6 +505,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,7 +525,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -499,7 +537,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,14 +583,14 @@
       <rgbColor rgb="FF8000FF"/>
       <rgbColor rgb="FF31859C"/>
       <rgbColor rgb="FFCCC1DA"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFD99694"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFFF6666"/>
+      <rgbColor rgb="FF0066FF"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -563,7 +605,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF8EB4E3"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFD99694"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF3366FF"/>
@@ -600,9 +642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -687,43 +729,46 @@
         <f aca="false">D3</f>
         <v>0.144757231</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="n">
         <v>1094</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="11" t="n">
         <v>1035</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="12" t="n">
         <v>991</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>1021</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="14" t="n">
         <v>949</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="10" t="n">
         <v>1171</v>
       </c>
-      <c r="O3" s="14" t="n">
+      <c r="O3" s="15" t="n">
         <v>1305</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>17</v>
+      <c r="Q3" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>163158.574</v>
@@ -740,8 +785,8 @@
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>21</v>
+      <c r="B5" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>234762.397</v>
@@ -754,40 +799,43 @@
         <f aca="false">D5</f>
         <v>0.234762397</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="n">
         <v>1139</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="11" t="n">
         <v>1011</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="12" t="n">
         <v>981</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>1208</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="14" t="n">
         <v>978</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="10" t="n">
         <v>1127</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>23</v>
+      <c r="B6" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>234988.378</v>
@@ -800,40 +848,43 @@
         <f aca="false">D6</f>
         <v>0.234988378</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="n">
         <v>1009</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <v>929</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>1043</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="14" t="n">
         <v>1008</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="10" t="n">
         <v>1065</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>25</v>
+      <c r="B7" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>242155.217</v>
@@ -846,37 +897,40 @@
         <f aca="false">D7</f>
         <v>0.242155217</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="10" t="n">
         <v>1389</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="11" t="n">
         <v>1507</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="12" t="n">
         <v>1384</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="13" t="n">
         <v>1376</v>
       </c>
-      <c r="M7" s="13" t="n">
+      <c r="M7" s="14" t="n">
         <v>1413</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="10" t="n">
         <v>931</v>
       </c>
-      <c r="O7" s="15" t="s">
-        <v>26</v>
+      <c r="O7" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>27</v>
+      <c r="B8" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>259265.238</v>
@@ -889,29 +943,32 @@
         <f aca="false">D8</f>
         <v>0.259265238</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="n">
         <v>1274</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="11" t="n">
         <v>1263</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="12" t="n">
         <v>1203</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="13" t="n">
         <v>1497</v>
       </c>
-      <c r="M8" s="13" t="n">
+      <c r="M8" s="14" t="n">
         <v>1352</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>300684.401</v>
@@ -932,37 +989,40 @@
         <f aca="false">D9</f>
         <v>0.300684401</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="n">
         <v>1720</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="12" t="n">
         <v>1944</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="13" t="n">
         <v>1739</v>
       </c>
-      <c r="M9" s="13" t="n">
+      <c r="M9" s="14" t="n">
         <v>1959</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="10" t="n">
         <v>634</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>30</v>
+      <c r="O9" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>31</v>
+      <c r="B10" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>357986.829</v>
@@ -975,37 +1035,40 @@
         <f aca="false">D10</f>
         <v>0.357986829</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="10" t="n">
         <v>1397</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="11" t="n">
         <v>1353</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="12" t="n">
         <v>1435</v>
       </c>
-      <c r="L10" s="19" t="n">
+      <c r="L10" s="20" t="n">
         <v>1478</v>
       </c>
-      <c r="M10" s="13" t="n">
+      <c r="M10" s="14" t="n">
         <v>1512</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="10" t="n">
         <v>825</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>32</v>
+      <c r="O10" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="16" t="s">
         <v>34</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1022,8 +1085,8 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>35</v>
+      <c r="B12" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1036,37 +1099,40 @@
         <f aca="false">D12</f>
         <v>0.448605372</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="10" t="n">
         <v>1626</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="12" t="n">
         <v>1991</v>
       </c>
-      <c r="L12" s="19" t="n">
+      <c r="L12" s="20" t="n">
         <v>1738</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="14" t="n">
         <v>1712</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="N12" s="10" t="n">
         <v>930</v>
       </c>
-      <c r="O12" s="15" t="s">
-        <v>36</v>
+      <c r="O12" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>37</v>
+      <c r="B13" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1079,31 +1145,31 @@
         <f aca="false">D13</f>
         <v>0.543646694</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="9" t="n">
+      <c r="G13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="10" t="n">
         <v>2478</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="11" t="n">
         <v>2638</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="12" t="n">
         <v>2884</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>39</v>
+      <c r="L13" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>40</v>
+      <c r="B14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1116,31 +1182,34 @@
         <f aca="false">D14</f>
         <v>0.596106663</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="G14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="10" t="n">
         <v>2608</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="11" t="n">
         <v>2411</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="12" t="n">
         <v>2801</v>
       </c>
-      <c r="L14" s="19" t="n">
+      <c r="L14" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>41</v>
+      <c r="M14" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
+      <c r="B15" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1153,31 +1222,34 @@
         <f aca="false">D15</f>
         <v>0.636105372</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="G15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="11" t="n">
         <v>2044</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="12" t="n">
         <v>1963</v>
       </c>
-      <c r="L15" s="19" t="n">
+      <c r="L15" s="20" t="n">
         <v>1993</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>43</v>
+      <c r="M15" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
+      <c r="B16" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1190,31 +1262,34 @@
         <f aca="false">D16</f>
         <v>0.680720558</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="G16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="10" t="n">
         <v>2191</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="11" t="n">
         <v>2140</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="12" t="n">
         <v>2093</v>
       </c>
-      <c r="L16" s="19" t="n">
+      <c r="L16" s="20" t="n">
         <v>1576</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>45</v>
+      <c r="M16" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>46</v>
+      <c r="B17" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1227,31 +1302,34 @@
         <f aca="false">D17</f>
         <v>0.8574703</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="G17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="10" t="n">
         <v>2329</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="11" t="n">
         <v>2438</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="K17" s="12" t="n">
         <v>2276</v>
       </c>
-      <c r="L17" s="19" t="n">
+      <c r="L17" s="20" t="n">
         <v>957</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>47</v>
+      <c r="M17" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>48</v>
+      <c r="B18" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1264,37 +1342,40 @@
         <f aca="false">D18</f>
         <v>1.11914679</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10" t="n">
         <v>1786</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="11" t="n">
         <v>384</v>
       </c>
-      <c r="K18" s="21" t="n">
+      <c r="K18" s="24" t="n">
         <v>1742</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="L18" s="13" t="n">
         <v>1971</v>
       </c>
-      <c r="M18" s="13" t="n">
+      <c r="M18" s="14" t="n">
         <v>1693</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="N18" s="10" t="n">
         <v>424</v>
       </c>
-      <c r="O18" s="15" t="s">
-        <v>49</v>
+      <c r="O18" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1311,8 +1392,8 @@
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>52</v>
+      <c r="B20" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1325,31 +1406,34 @@
         <f aca="false">D20</f>
         <v>1.48820668</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="G20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="10" t="n">
         <v>2079</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="11" t="n">
         <v>1990</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="12" t="n">
         <v>1972</v>
       </c>
-      <c r="L20" s="19" t="n">
+      <c r="L20" s="20" t="n">
         <v>1959</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>53</v>
+      <c r="M20" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>54</v>
+      <c r="B21" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1362,31 +1446,34 @@
         <f aca="false">D21</f>
         <v>1.73434272</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="G21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="10" t="n">
         <v>3268</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="11" t="n">
         <v>478</v>
       </c>
-      <c r="K21" s="21" t="n">
+      <c r="K21" s="24" t="n">
         <v>3390</v>
       </c>
-      <c r="L21" s="19" t="n">
+      <c r="L21" s="20" t="n">
         <v>864</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>55</v>
+      <c r="M21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>56</v>
+      <c r="B22" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -1399,31 +1486,31 @@
         <f aca="false">D22</f>
         <v>2.14046358</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="9" t="n">
+      <c r="G22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="10" t="n">
         <v>2323</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="11" t="n">
         <v>3113</v>
       </c>
-      <c r="K22" s="21" t="n">
+      <c r="K22" s="24" t="n">
         <v>2564</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>57</v>
+      <c r="L22" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -1440,8 +1527,8 @@
       <c r="A24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>60</v>
+      <c r="B24" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -1454,61 +1541,64 @@
         <f aca="false">D24</f>
         <v>2.56514721</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="10" t="n">
         <v>2338</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="11" t="n">
         <v>1637</v>
       </c>
-      <c r="K24" s="21" t="n">
+      <c r="K24" s="24" t="n">
         <v>2618</v>
       </c>
-      <c r="L24" s="19" t="n">
+      <c r="L24" s="20" t="n">
         <v>1407</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>61</v>
+      <c r="M24" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="A29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="16"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Pos11Exp 1</t>
   </si>
   <si>
-    <t xml:space="preserve">hpc</t>
+    <t xml:space="preserve">hpc * 2</t>
   </si>
   <si>
     <t xml:space="preserve">DONE!</t>
@@ -139,16 +139,10 @@
     <t xml:space="preserve">Pos7exp4</t>
   </si>
   <si>
-    <t xml:space="preserve">office desktop</t>
-  </si>
-  <si>
     <t xml:space="preserve">DONE! (1)</t>
   </si>
   <si>
     <t xml:space="preserve">Pos6exp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpc windfall</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (3)</t>
@@ -634,17 +628,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -666,31 +660,31 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -729,37 +723,40 @@
         <f aca="false">D3</f>
         <v>0.144757231</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="9" t="n">
+        <v>1060</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="J3" s="10" t="n">
         <v>1094</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="K3" s="11" t="n">
         <v>1035</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="L3" s="12" t="n">
         <v>991</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="M3" s="13" t="n">
         <v>1021</v>
       </c>
-      <c r="M3" s="14" t="n">
+      <c r="N3" s="14" t="n">
         <v>949</v>
       </c>
-      <c r="N3" s="10" t="n">
+      <c r="O3" s="10" t="n">
         <v>1171</v>
       </c>
-      <c r="O3" s="15" t="n">
+      <c r="P3" s="15" t="n">
         <v>1305</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -799,34 +796,37 @@
         <f aca="false">D5</f>
         <v>0.234762397</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="9" t="n">
+        <v>1033</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="J5" s="10" t="n">
         <v>1139</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="K5" s="11" t="n">
         <v>1011</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="L5" s="12" t="n">
         <v>981</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="M5" s="13" t="n">
         <v>1208</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="N5" s="14" t="n">
         <v>978</v>
       </c>
-      <c r="N5" s="10" t="n">
+      <c r="O5" s="10" t="n">
         <v>1127</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="Q5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -848,34 +848,37 @@
         <f aca="false">D6</f>
         <v>0.234988378</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="9" t="n">
+        <v>1007</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="J6" s="10" t="n">
         <v>1009</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="K6" s="11" t="n">
         <v>929</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="L6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="M6" s="13" t="n">
         <v>1043</v>
       </c>
-      <c r="M6" s="14" t="n">
+      <c r="N6" s="14" t="n">
         <v>1008</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="O6" s="10" t="n">
         <v>1065</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -897,31 +900,34 @@
         <f aca="false">D7</f>
         <v>0.242155217</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="9" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="J7" s="10" t="n">
         <v>1389</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="K7" s="11" t="n">
         <v>1507</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="L7" s="12" t="n">
         <v>1384</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="M7" s="13" t="n">
         <v>1376</v>
       </c>
-      <c r="M7" s="14" t="n">
+      <c r="N7" s="14" t="n">
         <v>1413</v>
       </c>
-      <c r="N7" s="10" t="n">
+      <c r="O7" s="10" t="n">
         <v>931</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -943,31 +949,34 @@
         <f aca="false">D8</f>
         <v>0.259265238</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="9" t="n">
+        <v>1362</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="J8" s="10" t="n">
         <v>1274</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="K8" s="11" t="n">
         <v>1263</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="L8" s="12" t="n">
         <v>1203</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="M8" s="13" t="n">
         <v>1497</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="N8" s="14" t="n">
         <v>1352</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -989,31 +998,34 @@
         <f aca="false">D9</f>
         <v>0.300684401</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9" t="n">
+        <v>1861</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="J9" s="10" t="n">
         <v>1720</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="K9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="12" t="n">
+      <c r="L9" s="12" t="n">
         <v>1944</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="M9" s="13" t="n">
         <v>1739</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="N9" s="14" t="n">
         <v>1959</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="O9" s="10" t="n">
         <v>634</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1035,31 +1047,34 @@
         <f aca="false">D10</f>
         <v>0.357986829</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="9" t="n">
+        <v>1562</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="J10" s="10" t="n">
         <v>1397</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="K10" s="11" t="n">
         <v>1353</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="L10" s="12" t="n">
         <v>1435</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="M10" s="20" t="n">
         <v>1478</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="N10" s="14" t="n">
         <v>1512</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="O10" s="10" t="n">
         <v>825</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1099,31 +1114,34 @@
         <f aca="false">D12</f>
         <v>0.448605372</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="9" t="n">
+        <v>1589</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="J12" s="10" t="n">
         <v>1626</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="K12" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="12" t="n">
+      <c r="L12" s="12" t="n">
         <v>1991</v>
       </c>
-      <c r="L12" s="20" t="n">
+      <c r="M12" s="20" t="n">
         <v>1738</v>
       </c>
-      <c r="M12" s="14" t="n">
+      <c r="N12" s="14" t="n">
         <v>1712</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="O12" s="10" t="n">
         <v>930</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1146,21 +1164,22 @@
         <v>0.543646694</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="J13" s="10" t="n">
+        <v>2478</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>2638</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>2884</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <v>2478</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>2884</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1169,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1182,25 +1201,28 @@
         <f aca="false">D14</f>
         <v>0.596106663</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="10" t="n">
+      <c r="G14" s="23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>2608</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="K14" s="11" t="n">
         <v>2411</v>
       </c>
-      <c r="K14" s="12" t="n">
+      <c r="L14" s="12" t="n">
         <v>2801</v>
       </c>
-      <c r="L14" s="20" t="n">
+      <c r="M14" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1209,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1222,25 +1244,28 @@
         <f aca="false">D15</f>
         <v>0.636105372</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="10" t="n">
+      <c r="G15" s="23" t="n">
+        <v>114</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="K15" s="11" t="n">
         <v>2044</v>
       </c>
-      <c r="K15" s="12" t="n">
+      <c r="L15" s="12" t="n">
         <v>1963</v>
       </c>
-      <c r="L15" s="20" t="n">
+      <c r="M15" s="20" t="n">
         <v>1993</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1249,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1262,25 +1287,28 @@
         <f aca="false">D16</f>
         <v>0.680720558</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="10" t="n">
+      <c r="G16" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <v>2191</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="K16" s="11" t="n">
         <v>2140</v>
       </c>
-      <c r="K16" s="12" t="n">
+      <c r="L16" s="12" t="n">
         <v>2093</v>
       </c>
-      <c r="L16" s="20" t="n">
+      <c r="M16" s="20" t="n">
         <v>1576</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1289,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1302,25 +1330,28 @@
         <f aca="false">D17</f>
         <v>0.8574703</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="10" t="n">
+      <c r="G17" s="23" t="n">
+        <v>1366</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="10" t="n">
         <v>2329</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="K17" s="11" t="n">
         <v>2438</v>
       </c>
-      <c r="K17" s="12" t="n">
+      <c r="L17" s="12" t="n">
         <v>2276</v>
       </c>
-      <c r="L17" s="20" t="n">
+      <c r="M17" s="20" t="n">
         <v>957</v>
       </c>
-      <c r="M17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1329,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1342,40 +1373,43 @@
         <f aca="false">D18</f>
         <v>1.11914679</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="9" t="n">
+        <v>1873</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="J18" s="10" t="n">
         <v>1786</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="K18" s="11" t="n">
         <v>384</v>
       </c>
-      <c r="K18" s="24" t="n">
+      <c r="L18" s="24" t="n">
         <v>1742</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="M18" s="13" t="n">
         <v>1971</v>
       </c>
-      <c r="M18" s="14" t="n">
+      <c r="N18" s="14" t="n">
         <v>1693</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="O18" s="10" t="n">
         <v>424</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="0" t="s">
+      <c r="P18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1393,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1407,24 +1441,25 @@
         <v>1.48820668</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="J20" s="10" t="n">
         <v>2079</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="K20" s="11" t="n">
         <v>1990</v>
       </c>
-      <c r="K20" s="12" t="n">
+      <c r="L20" s="12" t="n">
         <v>1972</v>
       </c>
-      <c r="L20" s="20" t="n">
+      <c r="M20" s="20" t="n">
         <v>1959</v>
       </c>
-      <c r="M20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1433,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1447,24 +1482,25 @@
         <v>1.73434272</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="J21" s="10" t="n">
         <v>3268</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="K21" s="11" t="n">
         <v>478</v>
       </c>
-      <c r="K21" s="24" t="n">
+      <c r="L21" s="24" t="n">
         <v>3390</v>
       </c>
-      <c r="L21" s="20" t="n">
+      <c r="M21" s="20" t="n">
         <v>864</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1473,7 +1509,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -1487,30 +1523,31 @@
         <v>2.14046358</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="J22" s="10" t="n">
         <v>2323</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="K22" s="11" t="n">
         <v>3113</v>
       </c>
-      <c r="K22" s="24" t="n">
+      <c r="L22" s="24" t="n">
         <v>2564</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -1528,7 +1565,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -1541,62 +1578,65 @@
         <f aca="false">D24</f>
         <v>2.56514721</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="9" t="n">
+        <v>2386</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="J24" s="10" t="n">
         <v>2338</v>
       </c>
-      <c r="J24" s="11" t="n">
+      <c r="K24" s="11" t="n">
         <v>1637</v>
       </c>
-      <c r="K24" s="24" t="n">
+      <c r="L24" s="24" t="n">
         <v>2618</v>
       </c>
-      <c r="L24" s="20" t="n">
+      <c r="M24" s="20" t="n">
         <v>1407</v>
       </c>
-      <c r="M24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25"/>
       <c r="B30" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25"/>
       <c r="B31" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25"/>
       <c r="B32" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25"/>
       <c r="B33" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="17"/>
     </row>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -37,7 +37,13 @@
     <t xml:space="preserve">Initial Area (mm^2) - two decimals</t>
   </si>
   <si>
-    <t xml:space="preserve">10000 samples</t>
+    <t xml:space="preserve">10000 samples – first run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second run – regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second run – a</t>
   </si>
   <si>
     <t xml:space="preserve">8000 more samples - first run</t>
@@ -76,6 +82,9 @@
     <t xml:space="preserve">hpc * 2</t>
   </si>
   <si>
+    <t xml:space="preserve">hpc</t>
+  </si>
+  <si>
     <t xml:space="preserve">DONE!</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pos0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(failed)</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (5)</t>
@@ -237,7 +249,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -279,6 +291,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF579D1C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF330099"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -438,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,6 +522,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,23 +542,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,7 +595,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF330099"/>
       <rgbColor rgb="FF77933C"/>
       <rgbColor rgb="FF8000FF"/>
       <rgbColor rgb="FF31859C"/>
@@ -628,7 +651,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -636,9 +659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -660,38 +683,43 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>126904.7</v>
@@ -710,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>144757.231</v>
@@ -727,45 +755,48 @@
         <v>1060</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="11" t="n">
         <v>1094</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>1035</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>991</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="N3" s="14" t="n">
         <v>1021</v>
       </c>
-      <c r="N3" s="14" t="n">
+      <c r="O3" s="15" t="n">
         <v>949</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="P3" s="11" t="n">
         <v>1171</v>
       </c>
-      <c r="P3" s="15" t="n">
+      <c r="Q3" s="16" t="n">
         <v>1305</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>19</v>
+      <c r="S3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>163158.574</v>
@@ -782,8 +813,8 @@
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>22</v>
+      <c r="B5" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>234762.397</v>
@@ -799,43 +830,46 @@
       <c r="G5" s="9" t="n">
         <v>1033</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="H5" s="9" t="n">
+        <v>1015</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>1093</v>
+      </c>
+      <c r="K5" s="11" t="n">
         <v>1139</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>1011</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>981</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="N5" s="14" t="n">
         <v>1208</v>
       </c>
-      <c r="N5" s="14" t="n">
+      <c r="O5" s="15" t="n">
         <v>978</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="P5" s="11" t="n">
         <v>1127</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>19</v>
+      <c r="Q5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>234988.378</v>
@@ -852,42 +886,45 @@
         <v>1007</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="11" t="n">
         <v>1009</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>929</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="N6" s="14" t="n">
         <v>1043</v>
       </c>
-      <c r="N6" s="14" t="n">
+      <c r="O6" s="15" t="n">
         <v>1008</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="P6" s="11" t="n">
         <v>1065</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>19</v>
+      <c r="Q6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>26</v>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>242155.217</v>
@@ -903,40 +940,43 @@
       <c r="G7" s="9" t="n">
         <v>1361</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="H7" s="9" t="n">
+        <v>1554</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>1480</v>
+      </c>
+      <c r="K7" s="11" t="n">
         <v>1389</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="L7" s="12" t="n">
         <v>1507</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="M7" s="13" t="n">
         <v>1384</v>
       </c>
-      <c r="M7" s="13" t="n">
+      <c r="N7" s="14" t="n">
         <v>1376</v>
       </c>
-      <c r="N7" s="14" t="n">
+      <c r="O7" s="15" t="n">
         <v>1413</v>
       </c>
-      <c r="O7" s="10" t="n">
+      <c r="P7" s="11" t="n">
         <v>931</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>19</v>
+      <c r="Q7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>28</v>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>259265.238</v>
@@ -953,31 +993,34 @@
         <v>1362</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>650</v>
+      </c>
+      <c r="K8" s="11" t="n">
         <v>1274</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="L8" s="12" t="n">
         <v>1263</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="M8" s="13" t="n">
         <v>1203</v>
       </c>
-      <c r="M8" s="13" t="n">
+      <c r="N8" s="14" t="n">
         <v>1497</v>
       </c>
-      <c r="N8" s="14" t="n">
+      <c r="O8" s="15" t="n">
         <v>1352</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>19</v>
+      <c r="P8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>300684.401</v>
@@ -1002,39 +1045,42 @@
         <v>1861</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11" t="n">
         <v>1720</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="L9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="M9" s="13" t="n">
         <v>1944</v>
       </c>
-      <c r="M9" s="13" t="n">
+      <c r="N9" s="14" t="n">
         <v>1739</v>
       </c>
-      <c r="N9" s="14" t="n">
+      <c r="O9" s="15" t="n">
         <v>1959</v>
       </c>
-      <c r="O9" s="10" t="n">
+      <c r="P9" s="11" t="n">
         <v>634</v>
       </c>
-      <c r="P9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>19</v>
+      <c r="Q9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>357986.829</v>
@@ -1051,39 +1097,42 @@
         <v>1562</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="11" t="n">
         <v>1397</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="L10" s="12" t="n">
         <v>1353</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="M10" s="13" t="n">
         <v>1435</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="N10" s="21" t="n">
         <v>1478</v>
       </c>
-      <c r="N10" s="14" t="n">
+      <c r="O10" s="15" t="n">
         <v>1512</v>
       </c>
-      <c r="O10" s="10" t="n">
+      <c r="P10" s="11" t="n">
         <v>825</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>19</v>
+      <c r="Q10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1100,8 +1149,8 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1118,39 +1167,42 @@
         <v>1589</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="11" t="n">
         <v>1626</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>1991</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="N12" s="21" t="n">
         <v>1738</v>
       </c>
-      <c r="N12" s="14" t="n">
+      <c r="O12" s="15" t="n">
         <v>1712</v>
       </c>
-      <c r="O12" s="10" t="n">
+      <c r="P12" s="11" t="n">
         <v>930</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>19</v>
+      <c r="Q12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>38</v>
+      <c r="B13" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1163,32 +1215,32 @@
         <f aca="false">D13</f>
         <v>0.543646694</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="J13" s="10" t="n">
+      <c r="G13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="K13" s="11" t="n">
         <v>2478</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>2638</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>2884</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>19</v>
+      <c r="N13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>40</v>
+      <c r="B14" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1201,37 +1253,40 @@
         <f aca="false">D14</f>
         <v>0.596106663</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="H14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="11" t="n">
         <v>2608</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>2411</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>2801</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="N14" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>19</v>
+      <c r="O14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>42</v>
+      <c r="B15" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1244,37 +1299,40 @@
         <f aca="false">D15</f>
         <v>0.636105372</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="24" t="n">
         <v>114</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="H15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>2044</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>1963</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="N15" s="21" t="n">
         <v>1993</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>19</v>
+      <c r="O15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>44</v>
+      <c r="B16" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1287,37 +1345,40 @@
         <f aca="false">D16</f>
         <v>0.680720558</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="10" t="n">
+      <c r="H16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11" t="n">
         <v>2191</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="L16" s="12" t="n">
         <v>2140</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="M16" s="13" t="n">
         <v>2093</v>
       </c>
-      <c r="M16" s="20" t="n">
+      <c r="N16" s="21" t="n">
         <v>1576</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>19</v>
+      <c r="O16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>46</v>
+      <c r="B17" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1330,37 +1391,40 @@
         <f aca="false">D17</f>
         <v>0.8574703</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="24" t="n">
         <v>1366</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="H17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="n">
         <v>2329</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="L17" s="12" t="n">
         <v>2438</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="M17" s="13" t="n">
         <v>2276</v>
       </c>
-      <c r="M17" s="20" t="n">
+      <c r="N17" s="21" t="n">
         <v>957</v>
       </c>
-      <c r="N17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>19</v>
+      <c r="O17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>48</v>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1376,40 +1440,43 @@
       <c r="G18" s="9" t="n">
         <v>1873</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="10" t="n">
+      <c r="H18" s="9" t="n">
+        <v>1909</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>1849</v>
+      </c>
+      <c r="K18" s="11" t="n">
         <v>1786</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="L18" s="12" t="n">
         <v>384</v>
       </c>
-      <c r="L18" s="24" t="n">
+      <c r="M18" s="25" t="n">
         <v>1742</v>
       </c>
-      <c r="M18" s="13" t="n">
+      <c r="N18" s="14" t="n">
         <v>1971</v>
       </c>
-      <c r="N18" s="14" t="n">
+      <c r="O18" s="15" t="n">
         <v>1693</v>
       </c>
-      <c r="O18" s="10" t="n">
+      <c r="P18" s="11" t="n">
         <v>424</v>
       </c>
-      <c r="P18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>19</v>
+      <c r="Q18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1426,8 +1493,8 @@
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>52</v>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1440,35 +1507,35 @@
         <f aca="false">D20</f>
         <v>1.48820668</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="J20" s="10" t="n">
+      <c r="G20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="K20" s="11" t="n">
         <v>2079</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="L20" s="12" t="n">
         <v>1990</v>
       </c>
-      <c r="L20" s="12" t="n">
+      <c r="M20" s="13" t="n">
         <v>1972</v>
       </c>
-      <c r="M20" s="20" t="n">
+      <c r="N20" s="21" t="n">
         <v>1959</v>
       </c>
-      <c r="N20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>19</v>
+      <c r="O20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>55</v>
+      <c r="B21" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1481,35 +1548,35 @@
         <f aca="false">D21</f>
         <v>1.73434272</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="J21" s="10" t="n">
+      <c r="G21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="K21" s="11" t="n">
         <v>3268</v>
       </c>
-      <c r="K21" s="11" t="n">
+      <c r="L21" s="12" t="n">
         <v>478</v>
       </c>
-      <c r="L21" s="24" t="n">
+      <c r="M21" s="25" t="n">
         <v>3390</v>
       </c>
-      <c r="M21" s="20" t="n">
+      <c r="N21" s="21" t="n">
         <v>864</v>
       </c>
-      <c r="N21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>19</v>
+      <c r="O21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>57</v>
+      <c r="B22" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -1522,32 +1589,32 @@
         <f aca="false">D22</f>
         <v>2.14046358</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="J22" s="10" t="n">
+      <c r="G22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="K22" s="11" t="n">
         <v>2323</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="L22" s="12" t="n">
         <v>3113</v>
       </c>
-      <c r="L22" s="24" t="n">
+      <c r="M22" s="25" t="n">
         <v>2564</v>
       </c>
-      <c r="M22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>19</v>
+      <c r="N22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -1564,8 +1631,8 @@
       <c r="A24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>61</v>
+      <c r="B24" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -1582,63 +1649,66 @@
         <v>2386</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="11" t="n">
         <v>2338</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="L24" s="12" t="n">
         <v>1637</v>
       </c>
-      <c r="L24" s="24" t="n">
+      <c r="M24" s="25" t="n">
         <v>2618</v>
       </c>
-      <c r="M24" s="20" t="n">
+      <c r="N24" s="21" t="n">
         <v>1407</v>
       </c>
-      <c r="N24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>19</v>
+      <c r="O24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="22"/>
+      <c r="A29" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25"/>
-      <c r="B30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="19"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="26"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="17"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="20240" windowHeight="15800" tabRatio="985"/>
+    <workbookView xWindow="8080" yWindow="0" windowWidth="22020" windowHeight="15800" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Name (Explant #)</t>
   </si>
@@ -247,13 +247,25 @@
   </si>
   <si>
     <t>third run - a</t>
+  </si>
+  <si>
+    <t>fourth run - regular</t>
+  </si>
+  <si>
+    <t>fourth run - a</t>
+  </si>
+  <si>
+    <t>fourth run - b</t>
+  </si>
+  <si>
+    <t>fourth run - c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -384,6 +396,16 @@
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -444,7 +466,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -454,8 +476,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,16 +525,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,7 +951,7 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,36 +982,48 @@
       <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:28">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -990,7 +1042,7 @@
         <v>0.12690470000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1017,49 +1069,61 @@
       <c r="I3" s="30">
         <v>1059</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="29">
+        <v>829</v>
+      </c>
+      <c r="K3" s="30">
+        <v>1022</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="M3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="28">
-        <f>SUM(G3:I3)</f>
-        <v>3206</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="N3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="28">
+        <f>SUM(G3:K3)</f>
+        <v>5057</v>
+      </c>
+      <c r="S3" s="10">
         <v>1094</v>
       </c>
-      <c r="P3" s="11">
+      <c r="T3" s="11">
         <v>1035</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="U3" s="12">
         <v>991</v>
       </c>
-      <c r="R3" s="13">
+      <c r="V3" s="13">
         <v>1021</v>
       </c>
-      <c r="S3" s="14">
+      <c r="W3" s="14">
         <v>949</v>
       </c>
-      <c r="T3" s="10">
+      <c r="X3" s="10">
         <v>1171</v>
       </c>
-      <c r="U3" s="15">
+      <c r="Y3" s="15">
         <v>1305</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>434</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="AA3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:28">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1079,9 +1143,14 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1112,40 +1181,41 @@
         <v>71</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="28">
-        <f>SUM(G5:I5)</f>
-        <v>3141</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="28"/>
+      <c r="S5" s="10">
         <v>1139</v>
       </c>
-      <c r="P5" s="11">
+      <c r="T5" s="11">
         <v>1011</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="U5" s="12">
         <v>981</v>
       </c>
-      <c r="R5" s="13">
+      <c r="V5" s="13">
         <v>1208</v>
       </c>
-      <c r="S5" s="14">
+      <c r="W5" s="14">
         <v>978</v>
       </c>
-      <c r="T5" s="10">
+      <c r="X5" s="10">
         <v>1127</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="Z5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1172,46 +1242,58 @@
       <c r="I6" s="30">
         <v>1034</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="29">
+        <v>969</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1012</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="28">
-        <f>SUM(G6:I6)</f>
-        <v>2942</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="N6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="28">
+        <f>SUM(G6:K6)</f>
+        <v>4923</v>
+      </c>
+      <c r="S6" s="10">
         <v>1009</v>
       </c>
-      <c r="P6" s="11">
+      <c r="T6" s="11">
         <v>929</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="U6" s="12">
         <v>4</v>
       </c>
-      <c r="R6" s="13">
+      <c r="V6" s="13">
         <v>1043</v>
       </c>
-      <c r="S6" s="14">
+      <c r="W6" s="14">
         <v>1008</v>
       </c>
-      <c r="T6" s="10">
+      <c r="X6" s="10">
         <v>1065</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="Z6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1242,37 +1324,38 @@
         <v>71</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="28">
-        <f>SUM(G7:I7)</f>
-        <v>4395</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="28"/>
+      <c r="S7" s="10">
         <v>1389</v>
       </c>
-      <c r="P7" s="11">
+      <c r="T7" s="11">
         <v>1507</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="U7" s="12">
         <v>1384</v>
       </c>
-      <c r="R7" s="13">
+      <c r="V7" s="13">
         <v>1376</v>
       </c>
-      <c r="S7" s="14">
+      <c r="W7" s="14">
         <v>1413</v>
       </c>
-      <c r="T7" s="10">
+      <c r="X7" s="10">
         <v>931</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="Y7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1299,43 +1382,51 @@
       <c r="I8" s="30">
         <v>650</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="29">
+        <v>1333</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1441</v>
+      </c>
+      <c r="L8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="M8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="28">
-        <f>SUM(G8:I8)</f>
-        <v>3268</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="28">
+        <f>SUM(G8:K8)</f>
+        <v>6042</v>
+      </c>
+      <c r="S8" s="10">
         <v>1274</v>
       </c>
-      <c r="P8" s="11">
+      <c r="T8" s="11">
         <v>1263</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="U8" s="12">
         <v>1203</v>
       </c>
-      <c r="R8" s="13">
+      <c r="V8" s="13">
         <v>1497</v>
       </c>
-      <c r="S8" s="14">
+      <c r="W8" s="14">
         <v>1352</v>
       </c>
-      <c r="T8" t="s">
+      <c r="X8" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="Y8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1362,43 +1453,49 @@
       <c r="I9" s="30">
         <v>1875</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="29">
+        <v>1915</v>
+      </c>
+      <c r="K9" s="30">
+        <v>1847</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="28">
-        <f>SUM(G9:I9)</f>
-        <v>5589</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="28">
+        <f>SUM(G9:K9)</f>
+        <v>9351</v>
+      </c>
+      <c r="S9" s="10">
         <v>1720</v>
       </c>
-      <c r="P9" s="11">
+      <c r="T9" s="11">
         <v>4</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="U9" s="12">
         <v>1944</v>
       </c>
-      <c r="R9" s="13">
+      <c r="V9" s="13">
         <v>1739</v>
       </c>
-      <c r="S9" s="14">
+      <c r="W9" s="14">
         <v>1959</v>
       </c>
-      <c r="T9" s="10">
+      <c r="X9" s="10">
         <v>634</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="Y9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1425,43 +1522,49 @@
       <c r="I10" s="30">
         <v>1650</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="29">
+        <v>1567</v>
+      </c>
+      <c r="K10" s="30">
+        <v>1467</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="28">
-        <f>SUM(G10:I10)</f>
-        <v>4821</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="28">
+        <f>SUM(G10:K10)</f>
+        <v>7855</v>
+      </c>
+      <c r="S10" s="10">
         <v>1397</v>
       </c>
-      <c r="P10" s="11">
+      <c r="T10" s="11">
         <v>1353</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="U10" s="12">
         <v>1435</v>
       </c>
-      <c r="R10" s="20">
+      <c r="V10" s="20">
         <v>1478</v>
       </c>
-      <c r="S10" s="14">
+      <c r="W10" s="14">
         <v>1512</v>
       </c>
-      <c r="T10" s="10">
+      <c r="X10" s="10">
         <v>825</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="Y10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Z10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1481,9 +1584,14 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1510,43 +1618,49 @@
       <c r="I12" s="30">
         <v>1924</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="29">
+        <v>1830</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1821</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="28">
-        <f>SUM(G12:I12)</f>
-        <v>3513</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="28">
+        <f>SUM(G12:K12)</f>
+        <v>7164</v>
+      </c>
+      <c r="S12" s="10">
         <v>1626</v>
       </c>
-      <c r="P12" s="11">
+      <c r="T12" s="11">
         <v>3</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="U12" s="12">
         <v>1991</v>
       </c>
-      <c r="R12" s="20">
+      <c r="V12" s="20">
         <v>1738</v>
       </c>
-      <c r="S12" s="14">
+      <c r="W12" s="14">
         <v>1712</v>
       </c>
-      <c r="T12" s="10">
+      <c r="X12" s="10">
         <v>930</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="Y12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Z12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1569,24 +1683,29 @@
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="30"/>
-      <c r="M13" s="28"/>
-      <c r="O13" s="10">
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="28"/>
+      <c r="S13" s="10">
         <v>2478</v>
       </c>
-      <c r="P13" s="11">
+      <c r="T13" s="11">
         <v>2638</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="U13" s="12">
         <v>2884</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="V13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S13" t="s">
+      <c r="W13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1613,37 +1732,43 @@
       <c r="I14" s="30">
         <v>2700</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="28">
-        <f>SUM(G14:I14)</f>
-        <v>5682</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="J14" s="29">
+        <v>2887</v>
+      </c>
+      <c r="K14" s="30">
+        <v>2995</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="28">
+        <f>SUM(G14:K14)</f>
+        <v>11564</v>
+      </c>
+      <c r="S14" s="10">
         <v>2608</v>
       </c>
-      <c r="P14" s="11">
+      <c r="T14" s="11">
         <v>2411</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="U14" s="12">
         <v>2801</v>
       </c>
-      <c r="R14" s="20">
+      <c r="V14" s="20">
         <v>180</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="W14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T14" t="s">
+      <c r="X14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1670,37 +1795,43 @@
       <c r="I15" s="30">
         <v>2188</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="29">
+        <v>2049</v>
+      </c>
+      <c r="K15" s="30">
+        <v>2038</v>
+      </c>
+      <c r="L15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="28">
-        <f>SUM(G15:I15)</f>
-        <v>4425</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="28">
+        <f>SUM(G15:K15)</f>
+        <v>8512</v>
+      </c>
+      <c r="S15" s="10">
         <v>2000</v>
       </c>
-      <c r="P15" s="11">
+      <c r="T15" s="11">
         <v>2044</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="U15" s="12">
         <v>1963</v>
       </c>
-      <c r="R15" s="20">
+      <c r="V15" s="20">
         <v>1993</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="W15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T15" t="s">
+      <c r="X15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1727,37 +1858,43 @@
       <c r="I16" s="30">
         <v>2268</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="29">
+        <v>2236</v>
+      </c>
+      <c r="K16" s="30">
+        <v>2362</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="28">
-        <f>SUM(G16:I16)</f>
-        <v>4584</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28">
+        <f>SUM(G16:K16)</f>
+        <v>9182</v>
+      </c>
+      <c r="S16" s="10">
         <v>2191</v>
       </c>
-      <c r="P16" s="11">
+      <c r="T16" s="11">
         <v>2140</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="U16" s="12">
         <v>2093</v>
       </c>
-      <c r="R16" s="20">
+      <c r="V16" s="20">
         <v>1576</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="W16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T16" t="s">
+      <c r="X16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1784,37 +1921,43 @@
       <c r="I17" s="30">
         <v>2551</v>
       </c>
-      <c r="J17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="28">
-        <f>SUM(G17:I17)</f>
-        <v>6493</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="J17" s="29">
+        <v>2517</v>
+      </c>
+      <c r="K17" s="30">
+        <v>2475</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="28">
+        <f>SUM(G17:K17)</f>
+        <v>11485</v>
+      </c>
+      <c r="S17" s="10">
         <v>2329</v>
       </c>
-      <c r="P17" s="11">
+      <c r="T17" s="11">
         <v>2438</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="U17" s="12">
         <v>2276</v>
       </c>
-      <c r="R17" s="20">
+      <c r="V17" s="20">
         <v>957</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="W17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T17" t="s">
+      <c r="X17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1845,34 +1988,38 @@
         <v>71</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="28"/>
-      <c r="O18" s="10">
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="28"/>
+      <c r="S18" s="10">
         <v>1786</v>
       </c>
-      <c r="P18" s="11">
+      <c r="T18" s="11">
         <v>384</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="U18" s="24">
         <v>1742</v>
       </c>
-      <c r="R18" s="13">
+      <c r="V18" s="13">
         <v>1971</v>
       </c>
-      <c r="S18" s="14">
+      <c r="W18" s="14">
         <v>1693</v>
       </c>
-      <c r="T18" s="10">
+      <c r="X18" s="10">
         <v>424</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="Y18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Z18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:26">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -1890,9 +2037,14 @@
         <v>1.26231285</v>
       </c>
       <c r="I19" s="30"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1915,27 +2067,32 @@
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="30"/>
-      <c r="M20" s="28"/>
-      <c r="O20" s="10">
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="28"/>
+      <c r="S20" s="10">
         <v>2079</v>
       </c>
-      <c r="P20" s="11">
+      <c r="T20" s="11">
         <v>1990</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="U20" s="12">
         <v>1972</v>
       </c>
-      <c r="R20" s="20">
+      <c r="V20" s="20">
         <v>1959</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="W20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="T20" t="s">
+      <c r="X20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1958,27 +2115,32 @@
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="30"/>
-      <c r="M21" s="28"/>
-      <c r="O21" s="10">
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="28"/>
+      <c r="S21" s="10">
         <v>3268</v>
       </c>
-      <c r="P21" s="11">
+      <c r="T21" s="11">
         <v>478</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="U21" s="24">
         <v>3390</v>
       </c>
-      <c r="R21" s="20">
+      <c r="V21" s="20">
         <v>864</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="W21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T21" t="s">
+      <c r="X21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2001,24 +2163,29 @@
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="30"/>
-      <c r="M22" s="28"/>
-      <c r="O22" s="10">
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="28"/>
+      <c r="S22" s="10">
         <v>2323</v>
       </c>
-      <c r="P22" s="11">
+      <c r="T22" s="11">
         <v>3113</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="U22" s="24">
         <v>2564</v>
       </c>
-      <c r="R22" s="16" t="s">
+      <c r="V22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="S22" t="s">
+      <c r="W22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:26">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -2036,9 +2203,14 @@
         <v>2.23192149</v>
       </c>
       <c r="I23" s="30"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2065,37 +2237,43 @@
       <c r="I24" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="29">
+        <v>2505</v>
+      </c>
+      <c r="K24" s="30">
+        <v>2347</v>
+      </c>
+      <c r="L24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="28">
-        <f>SUM(G24:I24)</f>
-        <v>4712</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="28">
+        <f>SUM(G24:K24)</f>
+        <v>9564</v>
+      </c>
+      <c r="S24" s="10">
         <v>2338</v>
       </c>
-      <c r="P24" s="11">
+      <c r="T24" s="11">
         <v>1637</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="U24" s="24">
         <v>2618</v>
       </c>
-      <c r="R24" s="20">
+      <c r="V24" s="20">
         <v>1407</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="W24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T24" t="s">
+      <c r="X24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:26">
       <c r="A29" s="25" t="s">
         <v>65</v>
       </c>
@@ -2104,21 +2282,21 @@
       </c>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:26">
       <c r="A30" s="25"/>
       <c r="B30" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:26">
       <c r="A31" s="25"/>
       <c r="B31" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="26"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:26">
       <c r="A32" s="25"/>
       <c r="B32" s="27" t="s">
         <v>69</v>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">fourth run - c</t>
   </si>
   <si>
+    <t xml:space="preserve">fifth run – regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifth run – a</t>
+  </si>
+  <si>
     <t xml:space="preserve">how many so far?</t>
   </si>
   <si>
@@ -100,33 +106,33 @@
     <t xml:space="preserve">Pos11Exp 1</t>
   </si>
   <si>
+    <t xml:space="preserve">** office desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos11Exp 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos14Exp7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1556 (split up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos14Exp2</t>
+  </si>
+  <si>
     <t xml:space="preserve">hpc</t>
   </si>
   <si>
-    <t xml:space="preserve">DONE!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos11Exp 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos14Exp7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** office desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1556 (split up)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos14Exp2</t>
-  </si>
-  <si>
     <t xml:space="preserve">2942 (split up)</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pos5exp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpc (windfall)</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (10)</t>
@@ -329,6 +338,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -357,13 +373,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF8000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0066FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -550,6 +559,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,10 +572,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,7 +688,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -687,9 +696,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -735,14 +744,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -763,13 +772,19 @@
       <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>126904.7</v>
@@ -788,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>144757.231</v>
@@ -816,60 +831,64 @@
       <c r="K3" s="10" t="n">
         <v>1022</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="12" t="n">
-        <f aca="false">SUM(G3:K3)</f>
-        <v>5057</v>
-      </c>
-      <c r="S3" s="9" t="n">
+      <c r="L3" s="9" t="n">
+        <v>921</v>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>1095</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1034</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>1030</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="13" t="n">
+        <f aca="false">SUM(G3:Q3)</f>
+        <v>9137</v>
+      </c>
+      <c r="U3" s="9" t="n">
         <v>1094</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="V3" s="10" t="n">
         <v>1035</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="W3" s="14" t="n">
         <v>991</v>
       </c>
-      <c r="V3" s="14" t="n">
+      <c r="X3" s="15" t="n">
         <v>1021</v>
       </c>
-      <c r="W3" s="15" t="n">
+      <c r="Y3" s="16" t="n">
         <v>949</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="Z3" s="9" t="n">
         <v>1171</v>
       </c>
-      <c r="Y3" s="16" t="n">
+      <c r="AA3" s="17" t="n">
         <v>1305</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="AA3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>28</v>
+      <c r="AC3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>163158.574</v>
@@ -889,14 +908,16 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>31</v>
+      <c r="B5" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>234762.397</v>
@@ -918,8 +939,8 @@
       <c r="I5" s="10" t="n">
         <v>1093</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>32</v>
+      <c r="J5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="9"/>
@@ -927,44 +948,46 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="12" t="n">
-        <f aca="false">SUM(G5:K5)</f>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="13" t="n">
+        <f aca="false">SUM(G5:Q5)</f>
         <v>3141</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="U5" s="9" t="n">
         <v>1139</v>
       </c>
-      <c r="T5" s="10" t="n">
+      <c r="V5" s="10" t="n">
         <v>1011</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="W5" s="14" t="n">
         <v>981</v>
       </c>
-      <c r="V5" s="14" t="n">
+      <c r="X5" s="15" t="n">
         <v>1208</v>
       </c>
-      <c r="W5" s="15" t="n">
+      <c r="Y5" s="16" t="n">
         <v>978</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="Z5" s="9" t="n">
         <v>1127</v>
       </c>
-      <c r="Y5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="AA5" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>34</v>
+      <c r="B6" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>234988.378</v>
@@ -992,49 +1015,55 @@
       <c r="K6" s="10" t="n">
         <v>1012</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="12" t="n">
-        <f aca="false">SUM(G6:K6)</f>
-        <v>4923</v>
-      </c>
-      <c r="S6" s="9" t="n">
+      <c r="L6" s="9" t="n">
+        <v>974</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>891</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>1081</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>890</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="13" t="n">
+        <f aca="false">SUM(G6:Q6)</f>
+        <v>8759</v>
+      </c>
+      <c r="U6" s="9" t="n">
         <v>1009</v>
       </c>
-      <c r="T6" s="10" t="n">
+      <c r="V6" s="10" t="n">
         <v>929</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="W6" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="V6" s="14" t="n">
+      <c r="X6" s="15" t="n">
         <v>1043</v>
       </c>
-      <c r="W6" s="15" t="n">
+      <c r="Y6" s="16" t="n">
         <v>1008</v>
       </c>
-      <c r="X6" s="9" t="n">
+      <c r="Z6" s="9" t="n">
         <v>1065</v>
       </c>
-      <c r="Y6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="AA6" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>242155.217</v>
@@ -1064,42 +1093,46 @@
       <c r="I7" s="10" t="n">
         <v>1480</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="21"/>
+      <c r="J7" s="12" t="n">
+        <v>5605</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="12" t="n">
-        <f aca="false">SUM(G7:K7)</f>
-        <v>4395</v>
-      </c>
-      <c r="S7" s="9" t="n">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="13" t="n">
+        <f aca="false">SUM(G7:Q7)</f>
+        <v>10000</v>
+      </c>
+      <c r="U7" s="9" t="n">
         <v>1389</v>
       </c>
-      <c r="T7" s="10" t="n">
+      <c r="V7" s="10" t="n">
         <v>1507</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="W7" s="14" t="n">
         <v>1384</v>
       </c>
-      <c r="V7" s="14" t="n">
+      <c r="X7" s="15" t="n">
         <v>1376</v>
       </c>
-      <c r="W7" s="15" t="n">
+      <c r="Y7" s="16" t="n">
         <v>1413</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="Z7" s="9" t="n">
         <v>931</v>
       </c>
-      <c r="Y7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>28</v>
+      <c r="AA7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>259265.238</v>
@@ -1135,42 +1168,48 @@
       <c r="K8" s="10" t="n">
         <v>1441</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="L8" s="9" t="n">
+        <v>1264</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>1226</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="12" t="n">
-        <f aca="false">SUM(G8:K8)</f>
-        <v>6042</v>
-      </c>
-      <c r="S8" s="9" t="n">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="13" t="n">
+        <f aca="false">SUM(G8:Q8)</f>
+        <v>8532</v>
+      </c>
+      <c r="U8" s="9" t="n">
         <v>1274</v>
       </c>
-      <c r="T8" s="10" t="n">
+      <c r="V8" s="10" t="n">
         <v>1263</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="W8" s="14" t="n">
         <v>1203</v>
       </c>
-      <c r="V8" s="14" t="n">
+      <c r="X8" s="15" t="n">
         <v>1497</v>
       </c>
-      <c r="W8" s="15" t="n">
+      <c r="Y8" s="16" t="n">
         <v>1352</v>
       </c>
-      <c r="X8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="Z8" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>300684.401</v>
@@ -1209,39 +1248,41 @@
       <c r="L9" s="9" t="n">
         <v>649</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>27</v>
+      <c r="M9" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="12" t="n">
-        <f aca="false">SUM(G9:L9)</f>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="13" t="n">
+        <f aca="false">SUM(G9:Q9)</f>
         <v>10000</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="U9" s="9" t="n">
         <v>1720</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="V9" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="W9" s="14" t="n">
         <v>1944</v>
       </c>
-      <c r="V9" s="14" t="n">
+      <c r="X9" s="15" t="n">
         <v>1739</v>
       </c>
-      <c r="W9" s="15" t="n">
+      <c r="Y9" s="16" t="n">
         <v>1959</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="Z9" s="9" t="n">
         <v>634</v>
       </c>
-      <c r="Y9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>28</v>
+      <c r="AA9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>357986.829</v>
@@ -1277,48 +1318,52 @@
       <c r="K10" s="10" t="n">
         <v>1467</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="10"/>
+      <c r="L10" s="9" t="n">
+        <v>1484</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="12" t="n">
-        <f aca="false">SUM(G10:K10)</f>
-        <v>7855</v>
-      </c>
-      <c r="S10" s="9" t="n">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="13" t="n">
+        <f aca="false">SUM(G10:Q10)</f>
+        <v>9339</v>
+      </c>
+      <c r="U10" s="9" t="n">
         <v>1397</v>
       </c>
-      <c r="T10" s="10" t="n">
+      <c r="V10" s="10" t="n">
         <v>1353</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="W10" s="14" t="n">
         <v>1435</v>
       </c>
-      <c r="V10" s="23" t="n">
+      <c r="X10" s="23" t="n">
         <v>1478</v>
       </c>
-      <c r="W10" s="15" t="n">
+      <c r="Y10" s="16" t="n">
         <v>1512</v>
       </c>
-      <c r="X10" s="9" t="n">
+      <c r="Z10" s="9" t="n">
         <v>825</v>
       </c>
-      <c r="Y10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>28</v>
+      <c r="AA10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1338,14 +1383,16 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1362,7 +1409,7 @@
         <v>1589</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>1924</v>
@@ -1373,40 +1420,44 @@
       <c r="K12" s="10" t="n">
         <v>1821</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="10"/>
+      <c r="L12" s="9" t="n">
+        <v>1842</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="12" t="n">
-        <f aca="false">SUM(G12:K12)</f>
-        <v>7164</v>
-      </c>
-      <c r="S12" s="9" t="n">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="13" t="n">
+        <f aca="false">SUM(G12:Q12)</f>
+        <v>9006</v>
+      </c>
+      <c r="U12" s="9" t="n">
         <v>1626</v>
       </c>
-      <c r="T12" s="10" t="n">
+      <c r="V12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="W12" s="14" t="n">
         <v>1991</v>
       </c>
-      <c r="V12" s="23" t="n">
+      <c r="X12" s="23" t="n">
         <v>1738</v>
       </c>
-      <c r="W12" s="15" t="n">
+      <c r="Y12" s="16" t="n">
         <v>1712</v>
       </c>
-      <c r="X12" s="9" t="n">
+      <c r="Z12" s="9" t="n">
         <v>930</v>
       </c>
-      <c r="Y12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>28</v>
+      <c r="AA12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1427,31 +1478,33 @@
         <f aca="false">D13</f>
         <v>0.543646694</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="20"/>
+      <c r="G13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="10"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="12"/>
-      <c r="S13" s="9" t="n">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="13"/>
+      <c r="U13" s="9" t="n">
         <v>2478</v>
       </c>
-      <c r="T13" s="10" t="n">
+      <c r="V13" s="10" t="n">
         <v>2638</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="W13" s="14" t="n">
         <v>2884</v>
       </c>
-      <c r="V13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>28</v>
+      <c r="X13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1487,34 +1540,36 @@
       <c r="K14" s="10" t="n">
         <v>2995</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>27</v>
+      <c r="L14" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="12" t="n">
-        <f aca="false">SUM(G14:K14)</f>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="13" t="n">
+        <f aca="false">SUM(G14:Q14)</f>
         <v>11564</v>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="U14" s="9" t="n">
         <v>2608</v>
       </c>
-      <c r="T14" s="10" t="n">
+      <c r="V14" s="10" t="n">
         <v>2411</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="W14" s="14" t="n">
         <v>2801</v>
       </c>
-      <c r="V14" s="23" t="n">
+      <c r="X14" s="23" t="n">
         <v>180</v>
       </c>
-      <c r="W14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>28</v>
+      <c r="Y14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1550,34 +1605,38 @@
       <c r="K15" s="10" t="n">
         <v>2038</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="10"/>
+      <c r="L15" s="9" t="n">
+        <v>1488</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="12" t="n">
-        <f aca="false">SUM(G15:K15)</f>
-        <v>8512</v>
-      </c>
-      <c r="S15" s="9" t="n">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="13" t="n">
+        <f aca="false">SUM(G15:Q15)</f>
+        <v>10000</v>
+      </c>
+      <c r="U15" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="T15" s="10" t="n">
+      <c r="V15" s="10" t="n">
         <v>2044</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="W15" s="14" t="n">
         <v>1963</v>
       </c>
-      <c r="V15" s="23" t="n">
+      <c r="X15" s="23" t="n">
         <v>1993</v>
       </c>
-      <c r="W15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>28</v>
+      <c r="Y15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1616,33 +1675,35 @@
       <c r="L16" s="9" t="n">
         <v>818</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>27</v>
+      <c r="M16" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="12" t="n">
-        <f aca="false">SUM(G16:L16)</f>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="13" t="n">
+        <f aca="false">SUM(G16:Q16)</f>
         <v>10000</v>
       </c>
-      <c r="S16" s="9" t="n">
+      <c r="U16" s="9" t="n">
         <v>2191</v>
       </c>
-      <c r="T16" s="10" t="n">
+      <c r="V16" s="10" t="n">
         <v>2140</v>
       </c>
-      <c r="U16" s="13" t="n">
+      <c r="W16" s="14" t="n">
         <v>2093</v>
       </c>
-      <c r="V16" s="23" t="n">
+      <c r="X16" s="23" t="n">
         <v>1576</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>28</v>
+      <c r="Y16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1678,34 +1739,36 @@
       <c r="K17" s="10" t="n">
         <v>2475</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>27</v>
+      <c r="L17" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="12" t="n">
-        <f aca="false">SUM(G17:K17)</f>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="13" t="n">
+        <f aca="false">SUM(G17:Q17)</f>
         <v>11485</v>
       </c>
-      <c r="S17" s="9" t="n">
+      <c r="U17" s="9" t="n">
         <v>2329</v>
       </c>
-      <c r="T17" s="10" t="n">
+      <c r="V17" s="10" t="n">
         <v>2438</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="W17" s="14" t="n">
         <v>2276</v>
       </c>
-      <c r="V17" s="23" t="n">
+      <c r="X17" s="23" t="n">
         <v>957</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>28</v>
+      <c r="Y17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1735,52 +1798,54 @@
       <c r="I18" s="10" t="n">
         <v>1849</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="J18" s="12" t="n">
         <v>4369</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>27</v>
+      <c r="K18" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="12" t="n">
-        <f aca="false">SUM(G18:K18)</f>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="13" t="n">
+        <f aca="false">SUM(G18:Q18)</f>
         <v>10000</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="U18" s="9" t="n">
         <v>1786</v>
       </c>
-      <c r="T18" s="10" t="n">
+      <c r="V18" s="10" t="n">
         <v>384</v>
       </c>
-      <c r="U18" s="26" t="n">
+      <c r="W18" s="26" t="n">
         <v>1742</v>
       </c>
-      <c r="V18" s="14" t="n">
+      <c r="X18" s="15" t="n">
         <v>1971</v>
       </c>
-      <c r="W18" s="15" t="n">
+      <c r="Y18" s="16" t="n">
         <v>1693</v>
       </c>
-      <c r="X18" s="9" t="n">
+      <c r="Z18" s="9" t="n">
         <v>424</v>
       </c>
-      <c r="Y18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z18" s="0" t="s">
-        <v>28</v>
+      <c r="AA18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1798,14 +1863,16 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1818,34 +1885,36 @@
         <f aca="false">D20</f>
         <v>1.48820668</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="20"/>
+      <c r="G20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="10"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="12"/>
-      <c r="S20" s="9" t="n">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="13"/>
+      <c r="U20" s="9" t="n">
         <v>2079</v>
       </c>
-      <c r="T20" s="10" t="n">
+      <c r="V20" s="10" t="n">
         <v>1990</v>
       </c>
-      <c r="U20" s="13" t="n">
+      <c r="W20" s="14" t="n">
         <v>1972</v>
       </c>
-      <c r="V20" s="23" t="n">
+      <c r="X20" s="23" t="n">
         <v>1959</v>
       </c>
-      <c r="W20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>28</v>
+      <c r="Y20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1866,34 +1935,36 @@
         <f aca="false">D21</f>
         <v>1.73434272</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="20"/>
+      <c r="G21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="10"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="12"/>
-      <c r="S21" s="9" t="n">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="13"/>
+      <c r="U21" s="9" t="n">
         <v>3268</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="V21" s="10" t="n">
         <v>478</v>
       </c>
-      <c r="U21" s="26" t="n">
+      <c r="W21" s="26" t="n">
         <v>3390</v>
       </c>
-      <c r="V21" s="23" t="n">
+      <c r="X21" s="23" t="n">
         <v>864</v>
       </c>
-      <c r="W21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>28</v>
+      <c r="Y21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -1914,39 +1985,41 @@
         <f aca="false">D22</f>
         <v>2.14046358</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="20"/>
+      <c r="G22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22" s="10"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="12"/>
-      <c r="S22" s="9" t="n">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="13"/>
+      <c r="U22" s="9" t="n">
         <v>2323</v>
       </c>
-      <c r="T22" s="10" t="n">
+      <c r="V22" s="10" t="n">
         <v>3113</v>
       </c>
-      <c r="U22" s="26" t="n">
+      <c r="W22" s="26" t="n">
         <v>2564</v>
       </c>
-      <c r="V22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>28</v>
+      <c r="X22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -1964,14 +2037,16 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -1991,7 +2066,7 @@
         <v>2326</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>2505</v>
@@ -2002,71 +2077,73 @@
       <c r="L24" s="9" t="n">
         <v>436</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>27</v>
+      <c r="M24" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="12" t="n">
-        <f aca="false">SUM(G24:L24)</f>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="13" t="n">
+        <f aca="false">SUM(G24:Q24)</f>
         <v>10000</v>
       </c>
-      <c r="S24" s="9" t="n">
+      <c r="U24" s="9" t="n">
         <v>2338</v>
       </c>
-      <c r="T24" s="10" t="n">
+      <c r="V24" s="10" t="n">
         <v>1637</v>
       </c>
-      <c r="U24" s="26" t="n">
+      <c r="W24" s="26" t="n">
         <v>2618</v>
       </c>
-      <c r="V24" s="23" t="n">
+      <c r="X24" s="23" t="n">
         <v>1407</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>28</v>
+      <c r="Y24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
       <c r="B32" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27"/>
-      <c r="B33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="18"/>
+      <c r="B33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -106,31 +106,28 @@
     <t xml:space="preserve">Pos11Exp 1</t>
   </si>
   <si>
+    <t xml:space="preserve">DONE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos11Exp 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos14Exp7</t>
+  </si>
+  <si>
     <t xml:space="preserve">** office desktop</t>
   </si>
   <si>
-    <t xml:space="preserve">DONE!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos11Exp 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos14Exp7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1556 (split up)</t>
   </si>
   <si>
     <t xml:space="preserve">Pos14Exp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpc</t>
   </si>
   <si>
     <t xml:space="preserve">2942 (split up)</t>
@@ -696,9 +693,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -843,14 +840,16 @@
       <c r="O3" s="11" t="n">
         <v>1030</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="12" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="13" t="n">
         <f aca="false">SUM(G3:Q3)</f>
-        <v>9137</v>
+        <v>10000</v>
       </c>
       <c r="U3" s="9" t="n">
         <v>1094</v>
@@ -877,18 +876,18 @@
         <v>434</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>163158.574</v>
@@ -917,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>234762.397</v>
@@ -940,7 +939,7 @@
         <v>1093</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="9"/>
@@ -976,10 +975,10 @@
         <v>34</v>
       </c>
       <c r="AB5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,16 +1026,16 @@
       <c r="O6" s="11" t="n">
         <v>890</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>36</v>
+      <c r="P6" s="9" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="13" t="n">
         <f aca="false">SUM(G6:Q6)</f>
-        <v>8759</v>
+        <v>9380</v>
       </c>
       <c r="U6" s="9" t="n">
         <v>1009</v>
@@ -1057,13 +1056,13 @@
         <v>1065</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>242155.217</v>
@@ -1097,7 +1096,7 @@
         <v>5605</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
@@ -1129,10 +1128,10 @@
         <v>931</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>259265.238</v>
@@ -1174,18 +1173,20 @@
       <c r="M8" s="10" t="n">
         <v>1226</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="10"/>
+      <c r="N8" s="9" t="n">
+        <v>734</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>734</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="13" t="n">
         <f aca="false">SUM(G8:Q8)</f>
-        <v>8532</v>
+        <v>10000</v>
       </c>
       <c r="U8" s="9" t="n">
         <v>1274</v>
@@ -1203,13 +1204,13 @@
         <v>1352</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="AB8" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>300684.401</v>
@@ -1249,7 +1250,7 @@
         <v>649</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1279,10 +1280,10 @@
         <v>634</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>357986.829</v>
@@ -1322,7 +1323,7 @@
         <v>1484</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1352,18 +1353,18 @@
         <v>825</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1392,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1409,7 +1410,7 @@
         <v>1589</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>1924</v>
@@ -1424,7 +1425,7 @@
         <v>1842</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1454,10 +1455,10 @@
         <v>930</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1479,7 +1480,7 @@
         <v>0.543646694</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
@@ -1501,10 +1502,10 @@
         <v>2884</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1541,7 +1542,7 @@
         <v>2995</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -1566,10 +1567,10 @@
         <v>180</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1609,7 +1610,7 @@
         <v>1488</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1633,10 +1634,10 @@
         <v>1993</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1676,7 +1677,7 @@
         <v>818</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -1700,10 +1701,10 @@
         <v>1576</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1740,7 +1741,7 @@
         <v>2475</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -1765,10 +1766,10 @@
         <v>957</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1802,7 +1803,7 @@
         <v>4369</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
@@ -1834,18 +1835,18 @@
         <v>424</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1872,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1886,7 +1887,7 @@
         <v>1.48820668</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="10"/>
@@ -1911,10 +1912,10 @@
         <v>1959</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1936,7 +1937,7 @@
         <v>1.73434272</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="10"/>
@@ -1961,10 +1962,10 @@
         <v>864</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1973,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -1986,7 +1987,7 @@
         <v>2.14046358</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="10"/>
@@ -2008,18 +2009,18 @@
         <v>2564</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -2046,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -2066,7 +2067,7 @@
         <v>2326</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>2505</v>
@@ -2078,7 +2079,7 @@
         <v>436</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2102,46 +2103,46 @@
         <v>1407</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>77</v>
       </c>
       <c r="C29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
       <c r="B32" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27"/>
       <c r="B33" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="19"/>
     </row>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -154,22 +154,22 @@
     <t xml:space="preserve">Pos5exp4</t>
   </si>
   <si>
+    <t xml:space="preserve">DONE! (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos5exp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos6exp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(failed)</t>
+  </si>
+  <si>
     <t xml:space="preserve">hpc (windfall)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE! (10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos5exp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos6exp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(failed)</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (11)</t>
@@ -693,9 +693,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1029,13 +1029,15 @@
       <c r="P6" s="9" t="n">
         <v>621</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="10"/>
+      <c r="Q6" s="12" t="n">
+        <v>620</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="S6" s="13" t="n">
         <f aca="false">SUM(G6:Q6)</f>
-        <v>9380</v>
+        <v>10000</v>
       </c>
       <c r="U6" s="9" t="n">
         <v>1009</v>
@@ -1322,17 +1324,19 @@
       <c r="L10" s="9" t="n">
         <v>1484</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="10"/>
+      <c r="M10" s="10" t="n">
+        <v>544</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="13" t="n">
         <f aca="false">SUM(G10:Q10)</f>
-        <v>9339</v>
+        <v>9883</v>
       </c>
       <c r="U10" s="9" t="n">
         <v>1397</v>
@@ -1353,7 +1357,7 @@
         <v>825</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="0" t="s">
         <v>29</v>
@@ -1361,10 +1365,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1393,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1410,7 +1414,7 @@
         <v>1589</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>1924</v>
@@ -1425,7 +1429,7 @@
         <v>1842</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2067,7 +2071,7 @@
         <v>2326</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>2505</v>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">(failed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpc (windfall)</t>
   </si>
   <si>
     <t xml:space="preserve">DONE! (11)</t>
@@ -693,9 +690,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1327,16 +1324,18 @@
       <c r="M10" s="10" t="n">
         <v>544</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="10"/>
+      <c r="N10" s="12" t="n">
+        <v>117</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="13" t="n">
         <f aca="false">SUM(G10:Q10)</f>
-        <v>9883</v>
+        <v>10000</v>
       </c>
       <c r="U10" s="9" t="n">
         <v>1397</v>
@@ -1428,17 +1427,19 @@
       <c r="L12" s="9" t="n">
         <v>1842</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="10"/>
+      <c r="M12" s="10" t="n">
+        <v>936</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="13" t="n">
         <f aca="false">SUM(G12:Q12)</f>
-        <v>9006</v>
+        <v>9942</v>
       </c>
       <c r="U12" s="9" t="n">
         <v>1626</v>
@@ -1459,7 +1460,7 @@
         <v>930</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="0" t="s">
         <v>29</v>
@@ -1470,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1506,7 +1507,7 @@
         <v>2884</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y13" s="0" t="s">
         <v>29</v>
@@ -1517,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1571,7 +1572,7 @@
         <v>180</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z14" s="0" t="s">
         <v>29</v>
@@ -1582,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1638,7 +1639,7 @@
         <v>1993</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="0" t="s">
         <v>29</v>
@@ -1649,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1705,7 +1706,7 @@
         <v>1576</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="0" t="s">
         <v>29</v>
@@ -1716,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1770,7 +1771,7 @@
         <v>957</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="0" t="s">
         <v>29</v>
@@ -1781,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1839,7 +1840,7 @@
         <v>424</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="0" t="s">
         <v>29</v>
@@ -1847,10 +1848,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1877,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1916,7 +1917,7 @@
         <v>1959</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z20" s="0" t="s">
         <v>29</v>
@@ -1927,7 +1928,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1966,7 +1967,7 @@
         <v>864</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z21" s="0" t="s">
         <v>29</v>
@@ -1977,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -2013,7 +2014,7 @@
         <v>2564</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y22" s="0" t="s">
         <v>29</v>
@@ -2021,10 +2022,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -2051,7 +2052,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -2107,7 +2108,7 @@
         <v>1407</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z24" s="0" t="s">
         <v>29</v>
@@ -2115,38 +2116,38 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="C29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
       <c r="B32" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27"/>
       <c r="B33" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="19"/>
     </row>

--- a/Explant Work Flow.xlsx
+++ b/Explant Work Flow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name (Explant #)</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pos14Exp7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** office desktop</t>
   </si>
   <si>
     <t xml:space="preserve">1556 (split up)</t>
@@ -270,7 +267,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -373,13 +370,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF330099"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF31869B"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -484,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,11 +559,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,15 +575,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,7 +612,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF330099"/>
+      <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF77933C"/>
       <rgbColor rgb="FF8000FF"/>
       <rgbColor rgb="FF31859C"/>
@@ -690,9 +676,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -935,10 +921,12 @@
       <c r="I5" s="10" t="n">
         <v>1093</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="21"/>
+      <c r="J5" s="12" t="n">
+        <v>6859</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -948,7 +936,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="13" t="n">
         <f aca="false">SUM(G5:Q5)</f>
-        <v>3141</v>
+        <v>10000</v>
       </c>
       <c r="U5" s="9" t="n">
         <v>1139</v>
@@ -969,7 +957,7 @@
         <v>1127</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="18" t="s">
         <v>28</v>
@@ -983,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>234988.378</v>
@@ -1055,7 +1043,7 @@
         <v>1065</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="18" t="s">
         <v>28</v>
@@ -1068,8 +1056,8 @@
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>37</v>
+      <c r="B7" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>242155.217</v>
@@ -1127,7 +1115,7 @@
         <v>931</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="0" t="s">
         <v>29</v>
@@ -1137,8 +1125,8 @@
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>39</v>
+      <c r="B8" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>259265.238</v>
@@ -1203,7 +1191,7 @@
         <v>1352</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="18" t="s">
         <v>28</v>
@@ -1217,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>300684.401</v>
@@ -1279,7 +1267,7 @@
         <v>634</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="0" t="s">
         <v>29</v>
@@ -1289,8 +1277,8 @@
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>43</v>
+      <c r="B10" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>357986.829</v>
@@ -1346,7 +1334,7 @@
       <c r="W10" s="14" t="n">
         <v>1435</v>
       </c>
-      <c r="X10" s="23" t="n">
+      <c r="X10" s="22" t="n">
         <v>1478</v>
       </c>
       <c r="Y10" s="16" t="n">
@@ -1356,7 +1344,7 @@
         <v>825</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="0" t="s">
         <v>29</v>
@@ -1364,10 +1352,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>442116.477</v>
@@ -1395,8 +1383,8 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>47</v>
+      <c r="B12" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>448605.372</v>
@@ -1413,7 +1401,7 @@
         <v>1589</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>1924</v>
@@ -1430,16 +1418,18 @@
       <c r="M12" s="10" t="n">
         <v>936</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="10"/>
+      <c r="N12" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="13" t="n">
         <f aca="false">SUM(G12:Q12)</f>
-        <v>9942</v>
+        <v>10000</v>
       </c>
       <c r="U12" s="9" t="n">
         <v>1626</v>
@@ -1450,7 +1440,7 @@
       <c r="W12" s="14" t="n">
         <v>1991</v>
       </c>
-      <c r="X12" s="23" t="n">
+      <c r="X12" s="22" t="n">
         <v>1738</v>
       </c>
       <c r="Y12" s="16" t="n">
@@ -1460,7 +1450,7 @@
         <v>930</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="0" t="s">
         <v>29</v>
@@ -1470,8 +1460,8 @@
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>50</v>
+      <c r="B13" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>543646.694</v>
@@ -1507,7 +1497,7 @@
         <v>2884</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y13" s="0" t="s">
         <v>29</v>
@@ -1517,8 +1507,8 @@
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>52</v>
+      <c r="B14" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>596106.663</v>
@@ -1531,10 +1521,10 @@
         <f aca="false">D14</f>
         <v>0.596106663</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="24" t="n">
         <v>2910</v>
       </c>
       <c r="I14" s="10" t="n">
@@ -1568,11 +1558,11 @@
       <c r="W14" s="14" t="n">
         <v>2801</v>
       </c>
-      <c r="X14" s="23" t="n">
+      <c r="X14" s="22" t="n">
         <v>180</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z14" s="0" t="s">
         <v>29</v>
@@ -1582,8 +1572,8 @@
       <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>54</v>
+      <c r="B15" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>636105.372</v>
@@ -1596,10 +1586,10 @@
         <f aca="false">D15</f>
         <v>0.636105372</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="24" t="n">
         <v>114</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="24" t="n">
         <v>2123</v>
       </c>
       <c r="I15" s="10" t="n">
@@ -1635,11 +1625,11 @@
       <c r="W15" s="14" t="n">
         <v>1963</v>
       </c>
-      <c r="X15" s="23" t="n">
+      <c r="X15" s="22" t="n">
         <v>1993</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="0" t="s">
         <v>29</v>
@@ -1649,8 +1639,8 @@
       <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>56</v>
+      <c r="B16" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>680720.558</v>
@@ -1663,10 +1653,10 @@
         <f aca="false">D16</f>
         <v>0.680720558</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="24" t="n">
         <v>2311</v>
       </c>
       <c r="I16" s="10" t="n">
@@ -1702,11 +1692,11 @@
       <c r="W16" s="14" t="n">
         <v>2093</v>
       </c>
-      <c r="X16" s="23" t="n">
+      <c r="X16" s="22" t="n">
         <v>1576</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z16" s="0" t="s">
         <v>29</v>
@@ -1716,8 +1706,8 @@
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>58</v>
+      <c r="B17" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>857470.3</v>
@@ -1730,10 +1720,10 @@
         <f aca="false">D17</f>
         <v>0.8574703</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="24" t="n">
         <v>1366</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="24" t="n">
         <v>2576</v>
       </c>
       <c r="I17" s="10" t="n">
@@ -1767,11 +1757,11 @@
       <c r="W17" s="14" t="n">
         <v>2276</v>
       </c>
-      <c r="X17" s="23" t="n">
+      <c r="X17" s="22" t="n">
         <v>957</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="0" t="s">
         <v>29</v>
@@ -1781,8 +1771,8 @@
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>60</v>
+      <c r="B18" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1119146.79</v>
@@ -1827,7 +1817,7 @@
       <c r="V18" s="10" t="n">
         <v>384</v>
       </c>
-      <c r="W18" s="26" t="n">
+      <c r="W18" s="25" t="n">
         <v>1742</v>
       </c>
       <c r="X18" s="15" t="n">
@@ -1840,7 +1830,7 @@
         <v>424</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="0" t="s">
         <v>29</v>
@@ -1848,10 +1838,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1262312.85</v>
@@ -1877,8 +1867,8 @@
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>64</v>
+      <c r="B20" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1488206.68</v>
@@ -1913,11 +1903,11 @@
       <c r="W20" s="14" t="n">
         <v>1972</v>
       </c>
-      <c r="X20" s="23" t="n">
+      <c r="X20" s="22" t="n">
         <v>1959</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z20" s="0" t="s">
         <v>29</v>
@@ -1927,8 +1917,8 @@
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>66</v>
+      <c r="B21" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1734342.72</v>
@@ -1960,14 +1950,14 @@
       <c r="V21" s="10" t="n">
         <v>478</v>
       </c>
-      <c r="W21" s="26" t="n">
+      <c r="W21" s="25" t="n">
         <v>3390</v>
       </c>
-      <c r="X21" s="23" t="n">
+      <c r="X21" s="22" t="n">
         <v>864</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z21" s="0" t="s">
         <v>29</v>
@@ -1977,8 +1967,8 @@
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>68</v>
+      <c r="B22" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2140463.58</v>
@@ -2010,11 +2000,11 @@
       <c r="V22" s="10" t="n">
         <v>3113</v>
       </c>
-      <c r="W22" s="26" t="n">
+      <c r="W22" s="25" t="n">
         <v>2564</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y22" s="0" t="s">
         <v>29</v>
@@ -2022,10 +2012,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2231921.49</v>
@@ -2051,8 +2041,8 @@
       <c r="A24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>72</v>
+      <c r="B24" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2565147.21</v>
@@ -2072,7 +2062,7 @@
         <v>2326</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>2505</v>
@@ -2101,53 +2091,53 @@
       <c r="V24" s="10" t="n">
         <v>1637</v>
       </c>
-      <c r="W24" s="26" t="n">
+      <c r="W24" s="25" t="n">
         <v>2618</v>
       </c>
-      <c r="X24" s="23" t="n">
+      <c r="X24" s="22" t="n">
         <v>1407</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z24" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26"/>
+      <c r="B30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="28"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29" t="s">
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26"/>
+      <c r="B33" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="29"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C33" s="19"/>
     </row>
